--- a/public/downloads/onc_program_matrix_1_8_0.xlsx
+++ b/public/downloads/onc_program_matrix_1_8_0.xlsx
@@ -12836,7 +12836,7 @@
         <v>yes</v>
       </c>
       <c r="H45" s="160" t="str">
-        <v>BDA-02, BDA-03, BDA-04, BDA-05, BDA-06, BDA-07, BDA-08</v>
+        <v>BDA-04, BDA-05, BDA-06, BDA-07, BDA-08</v>
       </c>
       <c r="I45" s="160"/>
       <c r="J45" s="160"/>
@@ -13042,7 +13042,7 @@
         <v>yes</v>
       </c>
       <c r="H51" s="160" t="str">
-        <v>BDA-02, BDA-03, BDA-04, BDA-05, BDA-06</v>
+        <v>BDA-04, BDA-05, BDA-06</v>
       </c>
       <c r="I51" s="160"/>
       <c r="J51" s="160"/>
@@ -13148,7 +13148,7 @@
         <v>yes</v>
       </c>
       <c r="H54" s="160" t="str">
-        <v>BDA-02, BDA-03, BDA-04, BDA-05, BDA-06, BDE-03, BDE-04, BDE-05</v>
+        <v>BDA-04, BDA-05, BDA-06, BDE-03</v>
       </c>
       <c r="I54" s="160"/>
       <c r="J54" s="160"/>
@@ -13799,7 +13799,7 @@
         <v>yes</v>
       </c>
       <c r="H83" s="160" t="str">
-        <v>BDE-03, BDE-04, BDE-05</v>
+        <v>BDE-03</v>
       </c>
       <c r="I83" s="160"/>
       <c r="J83" s="160"/>
